--- a/radars.xlsx
+++ b/radars.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet'!$A$2:$A$12</f>
+              <f>'Sheet'!$A$2:$A$8</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet'!$A$2:$A$12</f>
+              <f>'Sheet'!$A$2:$A$8</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet'!$A$2:$A$12</f>
+              <f>'Sheet'!$A$2:$A$8</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet'!$B$2:$B$12</f>
+              <f>'Sheet'!$B$2:$B$8</f>
             </numRef>
           </val>
         </ser>
@@ -562,7 +562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>3.285714285714286</v>
       </c>
     </row>
     <row r="3">
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.909090909090909</v>
+        <v>2.775510204081633</v>
       </c>
     </row>
     <row r="4">
@@ -665,50 +665,10 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sgdfs</t>
+          <t>акбулатов</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>fgf</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>df</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Акбулатов</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>hjgjg</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
         <v>2</v>
       </c>
     </row>
